--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmis\AMS\library\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7995" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>NOTICE OF AWARD</t>
   </si>
@@ -91,9 +86,6 @@
       </rPr>
       <t xml:space="preserve"> with the Purchase Order </t>
     </r>
-  </si>
-  <si>
-    <t>equivalent to Three (Php 3.00) is hereby accepted.</t>
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies. Keep one copy </t>
@@ -199,7 +191,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,49 +548,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:I22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -611,63 +603,69 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="33" spans="1:3" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A22:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7995" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>NOTICE OF AWARD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>16/35 MM Production Supply</t>
   </si>
@@ -45,64 +47,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">We are pleased to inform you that your Quotation for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>asd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> with the Purchase Order </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies. Keep one copy </t>
-  </si>
-  <si>
-    <t>and return the other to the General Services and Supply Section, DILG IV-A.   </t>
-  </si>
-  <si>
     <t>Very truly yours,</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
-  </si>
-  <si>
     <t>CONFORME:</t>
   </si>
   <si>
@@ -110,12 +60,24 @@
   </si>
   <si>
     <t>Date    :           __________________________</t>
+  </si>
+  <si>
+    <t>Officer-in-Charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -168,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,11 +143,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -215,13 +178,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6111240</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -247,8 +210,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="213360" y="15240"/>
-          <a:ext cx="6019800" cy="1379220"/>
+          <a:off x="22860" y="15240"/>
+          <a:ext cx="6088380" cy="1379220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -326,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,126 +512,115 @@
   <dimension ref="A10:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="85.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A22:I23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"-,Italic"The Head of the Procuring Entity, through the Procurement Unit/Office, immediately upon approval of the recommendation for award, shall issue the Notice of Award to the bidder with the LCRB.</oddFooter>
   </headerFooter>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -62,9 +62,6 @@
     <t>Date    :           __________________________</t>
   </si>
   <si>
-    <t>Officer-in-Charger</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   16/35 MM Production Supply</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
+  </si>
+  <si>
+    <t>Officer-in-Charge</t>
   </si>
 </sst>
 </file>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:I44"/>
+  <dimension ref="A10:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
   <sheetData>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -575,46 +575,46 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A10:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,14 +555,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBFF73-6D77-498C-A300-8163D6A0A835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
     <t>CONFORME:</t>
   </si>
   <si>
@@ -72,12 +70,15 @@
   </si>
   <si>
     <t>Officer-in-Charge</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -190,7 +191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -508,55 +515,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="85.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -567,47 +574,47 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBFF73-6D77-498C-A300-8163D6A0A835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA53A7-7315-46FD-9781-6D722EE042CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>Officer-in-Charge</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
 </sst>
 </file>

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA53A7-7315-46FD-9781-6D722EE042CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,16 +68,16 @@
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
-  </si>
-  <si>
     <t>ARIEL O. IGLESIA, CESO IV</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -515,10 +514,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -586,12 +585,12 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -68,10 +68,10 @@
     <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
-  </si>
-  <si>
     <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A10:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,12 +585,12 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/library/export_noa.xlsx
+++ b/library/export_noa.xlsx
@@ -32,8 +32,35 @@
     <t>UG22-23 Star Centrum Bldg. #317 Gil Puyat Ave. Makati City</t>
   </si>
   <si>
+    <t>Very truly yours,</t>
+  </si>
+  <si>
+    <t>CONFORME:</t>
+  </si>
+  <si>
+    <t>By        :           __________________________</t>
+  </si>
+  <si>
+    <t>Date    :           __________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Dear Mr./Ms. </t>
+      <t xml:space="preserve">Dear Sir/Madam: </t>
     </r>
     <r>
       <rPr>
@@ -45,33 +72,6 @@
       </rPr>
       <t>16/35 MM Production Supply:</t>
     </r>
-  </si>
-  <si>
-    <t>Very truly yours,</t>
-  </si>
-  <si>
-    <t>CONFORME:</t>
-  </si>
-  <si>
-    <t>By        :           __________________________</t>
-  </si>
-  <si>
-    <t>Date    :           __________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   16/35 MM Production Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                   NOTICE OF AWARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing below. </t>
-  </si>
-  <si>
-    <t>Regional Director</t>
-  </si>
-  <si>
-    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
   <sheetData>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -556,7 +556,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -575,37 +575,37 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
